--- a/data/trans_orig/ip32_a_es-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ip32_a_es-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67BBD5FA-B306-4E0C-8561-10A27D377370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C07ECBA4-B999-4936-AFC8-D1AE4B7B1BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9F526026-49A5-4808-BF33-3A00C3D7FD7C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3BB04DF3-838E-489F-AB5C-56B9275ECA07}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -90,10 +90,127 @@
     <t>100%</t>
   </si>
   <si>
+    <t>35,02%</t>
+  </si>
+  <si>
     <t>64,98%</t>
   </si>
   <si>
-    <t>35,02%</t>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
   </si>
   <si>
     <t>10/15</t>
@@ -102,6 +219,189 @@
     <t>9,99%</t>
   </si>
   <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
     <t>16,36%</t>
   </si>
   <si>
@@ -120,309 +420,207 @@
     <t>19,84%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
     <t>6,81%</t>
   </si>
   <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
     <t>11,24%</t>
   </si>
   <si>
@@ -441,207 +639,24 @@
     <t>14,66%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
     <t>menores según el año que llegó a España en 2015 (Tasa respuesta: 1,51%)</t>
   </si>
   <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
     <t>44,41%</t>
   </si>
   <si>
@@ -654,19 +669,43 @@
     <t>24,26%</t>
   </si>
   <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -678,6 +717,147 @@
     <t>8,27%</t>
   </si>
   <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
     <t>11,2%</t>
   </si>
   <si>
@@ -690,189 +870,204 @@
     <t>23,47%</t>
   </si>
   <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
     <t>8,25%</t>
   </si>
   <si>
@@ -883,201 +1078,6 @@
   </si>
   <si>
     <t>17,95%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ED344A-BA05-40CC-8B72-A6063E81ABD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B1B597-A381-4C14-B1C3-9468A7003DD4}">
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1584,7 +1584,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -1635,7 +1635,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1686,7 +1686,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1737,7 +1737,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1788,7 +1788,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1839,7 +1839,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1857,55 +1857,55 @@
         <v>12</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>1051</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1923,40 +1923,40 @@
         <v>12</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>1051</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1974,25 +1974,25 @@
         <v>12</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -2010,40 +2010,40 @@
         <v>12</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -2094,7 +2094,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2145,7 +2145,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -2196,7 +2196,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -2247,7 +2247,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2351,7 +2351,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="5">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -2369,295 +2369,295 @@
         <v>20</v>
       </c>
       <c r="H19" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>2841</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2841</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>1924</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>4245</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M20" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>6169</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="C21" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21" s="7">
-        <v>4653</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M21" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N21" s="7">
-        <v>5563</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>2062</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>736</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>2798</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>4039</v>
+        <v>1128</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="7">
         <v>1</v>
       </c>
-      <c r="I23" s="7">
-        <v>718</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23" s="7">
-        <v>5</v>
-      </c>
       <c r="N23" s="7">
-        <v>4758</v>
+        <v>1128</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>3120</v>
+        <v>1255</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>1936</v>
+        <v>2154</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="M24" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" s="7">
-        <v>5056</v>
+        <v>3410</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -2675,193 +2675,193 @@
         <v>20</v>
       </c>
       <c r="H25" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>2003</v>
+        <v>2391</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="M25" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>2003</v>
+        <v>2391</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>3669</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>818</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>818</v>
+        <v>3669</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
       </c>
       <c r="D27" s="7">
-        <v>951</v>
+        <v>1067</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27" s="7">
-        <v>3164</v>
+        <v>988</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M27" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N27" s="7">
-        <v>4115</v>
+        <v>2055</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>923</v>
+        <v>1023</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>1804</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N28" s="7">
-        <v>923</v>
+        <v>2827</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2906,13 +2906,13 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2957,13 +2957,13 @@
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3008,13 +3008,13 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3059,7 +3059,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,10 +3068,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D33" s="7">
-        <v>17673</v>
+        <v>8142</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>16</v>
@@ -3083,10 +3083,10 @@
         <v>16</v>
       </c>
       <c r="H33" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I33" s="7">
-        <v>17372</v>
+        <v>7338</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>16</v>
@@ -3098,10 +3098,10 @@
         <v>16</v>
       </c>
       <c r="M33" s="7">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N33" s="7">
-        <v>35044</v>
+        <v>15480</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>16</v>
@@ -3115,10 +3115,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B34" s="5">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3148,7 +3148,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3163,13 +3163,13 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="C35" s="7">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3214,13 +3214,13 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3316,166 +3316,166 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>1023</v>
+        <v>923</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="H38" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>1804</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="M38" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>2827</v>
+        <v>923</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
       </c>
       <c r="D39" s="7">
-        <v>1067</v>
+        <v>951</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="H39" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39" s="7">
-        <v>988</v>
+        <v>3164</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="M39" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N39" s="7">
-        <v>2055</v>
+        <v>4115</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C40" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>3669</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="H40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="7">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="M40" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N40" s="7">
-        <v>3669</v>
+        <v>818</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -3490,298 +3490,298 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="H41" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" s="7">
-        <v>2391</v>
+        <v>2003</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="M41" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N41" s="7">
-        <v>2391</v>
+        <v>2003</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C42" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42" s="7">
-        <v>1255</v>
+        <v>3120</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
       </c>
       <c r="I42" s="7">
-        <v>2154</v>
+        <v>1936</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="M42" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N42" s="7">
-        <v>3410</v>
+        <v>5056</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="C43" s="7">
+        <v>4</v>
+      </c>
+      <c r="D43" s="7">
+        <v>4039</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" s="7">
         <v>1</v>
       </c>
-      <c r="D43" s="7">
-        <v>1128</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
       <c r="I43" s="7">
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M43" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N43" s="7">
-        <v>1128</v>
+        <v>4758</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="C44" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44" s="7">
-        <v>0</v>
+        <v>2062</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H44" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="7">
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="M44" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N44" s="7">
-        <v>0</v>
+        <v>2798</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="C45" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D45" s="7">
-        <v>0</v>
+        <v>4653</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="H45" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="7">
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="M45" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N45" s="7">
-        <v>0</v>
+        <v>5563</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="C46" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D46" s="7">
-        <v>0</v>
+        <v>1924</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="H46" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I46" s="7">
-        <v>0</v>
+        <v>4245</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="M46" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N46" s="7">
-        <v>0</v>
+        <v>6169</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C47" s="7">
         <v>0</v>
@@ -3796,37 +3796,37 @@
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="H47" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47" s="7">
-        <v>0</v>
+        <v>2841</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="M47" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N47" s="7">
-        <v>0</v>
+        <v>2841</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,10 +3835,10 @@
         <v>3</v>
       </c>
       <c r="C48" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D48" s="7">
-        <v>8142</v>
+        <v>17673</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>16</v>
@@ -3850,10 +3850,10 @@
         <v>16</v>
       </c>
       <c r="H48" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I48" s="7">
-        <v>7338</v>
+        <v>17372</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>16</v>
@@ -3865,10 +3865,10 @@
         <v>16</v>
       </c>
       <c r="M48" s="7">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N48" s="7">
-        <v>15480</v>
+        <v>35044</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>16</v>
@@ -3885,7 +3885,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="5">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="C49" s="7">
         <v>0</v>
@@ -3903,652 +3903,652 @@
         <v>127</v>
       </c>
       <c r="H49" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>2841</v>
+        <v>0</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M49" s="7">
-        <v>3</v>
-      </c>
-      <c r="N49" s="7">
-        <v>2841</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="C50" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D50" s="7">
-        <v>1924</v>
+        <v>0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H50" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>4245</v>
+        <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="M50" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N50" s="7">
-        <v>6169</v>
+        <v>0</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="C51" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D51" s="7">
-        <v>4653</v>
+        <v>0</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="H51" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="M51" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N51" s="7">
-        <v>5563</v>
+        <v>0</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="C52" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D52" s="7">
-        <v>2062</v>
+        <v>0</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H52" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>736</v>
+        <v>0</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="M52" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N52" s="7">
-        <v>2798</v>
+        <v>0</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="C53" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" s="7">
-        <v>5063</v>
+        <v>2051</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="H53" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" s="7">
-        <v>2522</v>
+        <v>0</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="M53" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N53" s="7">
-        <v>7585</v>
+        <v>2051</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="C54" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" s="7">
-        <v>4187</v>
+        <v>2207</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="H54" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I54" s="7">
-        <v>2924</v>
+        <v>5885</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="M54" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N54" s="7">
-        <v>7111</v>
+        <v>8091</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C55" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D55" s="7">
-        <v>4720</v>
+        <v>0</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="H55" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I55" s="7">
-        <v>2003</v>
+        <v>3209</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="M55" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N55" s="7">
-        <v>6723</v>
+        <v>3209</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C56" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D56" s="7">
-        <v>0</v>
+        <v>4720</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="H56" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I56" s="7">
-        <v>3209</v>
+        <v>2003</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="M56" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N56" s="7">
-        <v>3209</v>
+        <v>6723</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C57" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" s="7">
-        <v>2207</v>
+        <v>4187</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="H57" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I57" s="7">
-        <v>5885</v>
+        <v>2924</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="M57" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N57" s="7">
-        <v>8091</v>
+        <v>7111</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="C58" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" s="7">
-        <v>2051</v>
+        <v>5063</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="H58" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I58" s="7">
-        <v>0</v>
+        <v>2522</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="M58" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N58" s="7">
-        <v>2051</v>
+        <v>7585</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="C59" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59" s="7">
-        <v>0</v>
+        <v>2062</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="H59" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="7">
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="M59" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N59" s="7">
-        <v>0</v>
+        <v>2798</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="C60" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D60" s="7">
-        <v>0</v>
+        <v>4653</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="H60" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="7">
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="M60" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N60" s="7">
-        <v>0</v>
+        <v>5563</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="C61" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D61" s="7">
-        <v>0</v>
+        <v>1924</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="H61" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I61" s="7">
-        <v>0</v>
+        <v>4245</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M61" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N61" s="7">
-        <v>0</v>
+        <v>6169</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C62" s="7">
         <v>0</v>
@@ -4566,31 +4566,31 @@
         <v>127</v>
       </c>
       <c r="H62" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I62" s="7">
-        <v>0</v>
+        <v>2841</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="L62" s="7" t="s">
         <v>196</v>
       </c>
       <c r="M62" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N62" s="7">
-        <v>0</v>
+        <v>2841</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="Q62" s="7" t="s">
         <v>199</v>
@@ -4663,7 +4663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0820EDEE-E622-43F5-BE86-C325F3F3A4B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299D34FD-907A-4C59-BBF3-EDEF81EDFC02}">
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4778,7 +4778,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -4796,91 +4796,91 @@
         <v>12</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>937</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1473</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>202</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4925,13 +4925,13 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -4949,40 +4949,40 @@
         <v>12</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>715</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>715</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>202</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -5012,7 +5012,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5027,13 +5027,13 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -5063,7 +5063,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5078,13 +5078,13 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -5114,7 +5114,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5129,13 +5129,13 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -5180,13 +5180,13 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5231,13 +5231,13 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5282,13 +5282,13 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -5306,40 +5306,40 @@
         <v>12</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>715</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>715</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -5384,64 +5384,64 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>937</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>1473</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -5459,34 +5459,34 @@
         <v>12</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>759</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,7 +5545,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="5">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -5560,58 +5560,58 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>983</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>10</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5626,79 +5626,79 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>983</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>1862</v>
+        <v>892</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>778</v>
+        <v>915</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="M21" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N21" s="7">
-        <v>2640</v>
+        <v>1807</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -5713,145 +5713,145 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="H22" s="7">
-        <v>2</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1492</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M22" s="7">
-        <v>2</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1492</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>713</v>
+        <v>672</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>229</v>
+        <v>14</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>2577</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="M23" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>3290</v>
+        <v>672</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>644</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="7">
         <v>2</v>
       </c>
-      <c r="D24" s="7">
-        <v>2253</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
       <c r="I24" s="7">
-        <v>931</v>
+        <v>1165</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
       </c>
       <c r="N24" s="7">
-        <v>3185</v>
+        <v>1809</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -5866,94 +5866,94 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>2024</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>243</v>
+        <v>10</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>1863</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>245</v>
+        <v>10</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="M26" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>3887</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -5968,43 +5968,43 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -6019,94 +6019,94 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="H28" s="7">
-        <v>1</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1167</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M28" s="7">
-        <v>1</v>
-      </c>
-      <c r="N28" s="7">
-        <v>1167</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>253</v>
+        <v>10</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>1813</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>2756</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -6121,43 +6121,43 @@
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="H30" s="7">
-        <v>1</v>
-      </c>
-      <c r="I30" s="7">
-        <v>993</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="M30" s="7">
-        <v>1</v>
-      </c>
-      <c r="N30" s="7">
-        <v>993</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -6172,43 +6172,43 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -6223,37 +6223,37 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,10 +6262,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D33" s="7">
-        <v>8779</v>
+        <v>2208</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>16</v>
@@ -6277,10 +6277,10 @@
         <v>16</v>
       </c>
       <c r="H33" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I33" s="7">
-        <v>11613</v>
+        <v>2080</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>16</v>
@@ -6292,10 +6292,10 @@
         <v>16</v>
       </c>
       <c r="M33" s="7">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="N33" s="7">
-        <v>20392</v>
+        <v>4288</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>16</v>
@@ -6309,10 +6309,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B34" s="5">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -6327,7 +6327,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6342,7 +6342,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6357,13 +6357,13 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="C35" s="7">
         <v>0</v>
@@ -6378,7 +6378,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6393,7 +6393,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6408,13 +6408,13 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -6429,94 +6429,94 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="H36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="7">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="M36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="7">
-        <v>0</v>
+        <v>993</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>943</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H37" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" s="7">
-        <v>0</v>
+        <v>1813</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>10</v>
+        <v>232</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="M37" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N37" s="7">
-        <v>0</v>
+        <v>2756</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -6531,43 +6531,43 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="H38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>0</v>
+        <v>1167</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="M38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>0</v>
+        <v>1167</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="C39" s="7">
         <v>0</v>
@@ -6582,7 +6582,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -6597,7 +6597,7 @@
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -6612,64 +6612,64 @@
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C40" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D40" s="7">
-        <v>0</v>
+        <v>2024</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="H40" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" s="7">
-        <v>0</v>
+        <v>1863</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="M40" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N40" s="7">
-        <v>0</v>
+        <v>3887</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -6684,7 +6684,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -6699,7 +6699,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -6714,115 +6714,115 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C42" s="7">
+        <v>2</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2253</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H42" s="7">
         <v>1</v>
       </c>
-      <c r="D42" s="7">
-        <v>644</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="7">
-        <v>2</v>
-      </c>
       <c r="I42" s="7">
-        <v>1165</v>
+        <v>931</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="M42" s="7">
         <v>3</v>
       </c>
       <c r="N42" s="7">
-        <v>1809</v>
+        <v>3185</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
       </c>
       <c r="D43" s="7">
-        <v>672</v>
+        <v>713</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="H43" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43" s="7">
-        <v>0</v>
+        <v>2577</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="M43" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N43" s="7">
-        <v>672</v>
+        <v>3290</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -6837,109 +6837,109 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="H44" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" s="7">
-        <v>0</v>
+        <v>1492</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>10</v>
+        <v>262</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="M44" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44" s="7">
-        <v>0</v>
+        <v>1492</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>10</v>
+        <v>264</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="C45" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="7">
-        <v>892</v>
+        <v>1862</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
       </c>
       <c r="I45" s="7">
-        <v>915</v>
+        <v>778</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="M45" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N45" s="7">
-        <v>1807</v>
+        <v>2640</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>10</v>
+        <v>271</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="C46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="7">
-        <v>0</v>
+        <v>983</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>201</v>
+        <v>274</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -6954,28 +6954,28 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="M46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" s="7">
-        <v>0</v>
+        <v>983</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C47" s="7">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -7005,7 +7005,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -7020,7 +7020,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,10 +7029,10 @@
         <v>3</v>
       </c>
       <c r="C48" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D48" s="7">
-        <v>2208</v>
+        <v>8779</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>16</v>
@@ -7044,10 +7044,10 @@
         <v>16</v>
       </c>
       <c r="H48" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I48" s="7">
-        <v>2080</v>
+        <v>11613</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>16</v>
@@ -7059,10 +7059,10 @@
         <v>16</v>
       </c>
       <c r="M48" s="7">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="N48" s="7">
-        <v>4288</v>
+        <v>20392</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>16</v>
@@ -7079,7 +7079,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="5">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="C49" s="7">
         <v>0</v>
@@ -7094,655 +7094,655 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="H49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="7">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>10</v>
+        <v>277</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="M49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" s="7">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>10</v>
+        <v>279</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="C50" s="7">
         <v>1</v>
       </c>
       <c r="D50" s="7">
-        <v>983</v>
+        <v>937</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H50" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>10</v>
+        <v>283</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c r="M50" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N50" s="7">
-        <v>983</v>
+        <v>1473</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="C51" s="7">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7">
+        <v>892</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H51" s="7">
         <v>2</v>
       </c>
-      <c r="D51" s="7">
-        <v>1862</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H51" s="7">
-        <v>1</v>
-      </c>
       <c r="I51" s="7">
-        <v>778</v>
+        <v>1907</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M51" s="7">
         <v>3</v>
       </c>
       <c r="N51" s="7">
-        <v>2640</v>
+        <v>2799</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="C52" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="7">
-        <v>0</v>
+        <v>943</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>10</v>
+        <v>293</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>211</v>
+        <v>294</v>
       </c>
       <c r="H52" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I52" s="7">
-        <v>1492</v>
+        <v>2528</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>10</v>
+        <v>296</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M52" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N52" s="7">
-        <v>1492</v>
+        <v>3471</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>10</v>
+        <v>299</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>291</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
       </c>
       <c r="D53" s="7">
-        <v>713</v>
+        <v>672</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="H53" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I53" s="7">
-        <v>2577</v>
+        <v>1167</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>295</v>
+        <v>10</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="M53" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N53" s="7">
-        <v>3290</v>
+        <v>1840</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="C54" s="7">
+        <v>1</v>
+      </c>
+      <c r="D54" s="7">
+        <v>644</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H54" s="7">
         <v>2</v>
       </c>
-      <c r="D54" s="7">
-        <v>2253</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H54" s="7">
-        <v>1</v>
-      </c>
       <c r="I54" s="7">
-        <v>931</v>
+        <v>1165</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M54" s="7">
         <v>3</v>
       </c>
       <c r="N54" s="7">
-        <v>3185</v>
+        <v>1809</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>66</v>
+        <v>310</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C55" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D55" s="7">
-        <v>0</v>
+        <v>2024</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>10</v>
+        <v>313</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>211</v>
+        <v>314</v>
       </c>
       <c r="H55" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" s="7">
-        <v>0</v>
+        <v>1863</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>10</v>
+        <v>315</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>84</v>
+        <v>316</v>
       </c>
       <c r="M55" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N55" s="7">
-        <v>0</v>
+        <v>3887</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>10</v>
+        <v>317</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C56" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D56" s="7">
-        <v>2024</v>
+        <v>0</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>306</v>
+        <v>10</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="H56" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" s="7">
-        <v>1863</v>
+        <v>0</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>308</v>
+        <v>10</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>309</v>
+        <v>60</v>
       </c>
       <c r="M56" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N56" s="7">
-        <v>3887</v>
+        <v>0</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C57" s="7">
+        <v>2</v>
+      </c>
+      <c r="D57" s="7">
+        <v>2253</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H57" s="7">
         <v>1</v>
       </c>
-      <c r="D57" s="7">
-        <v>644</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H57" s="7">
-        <v>2</v>
-      </c>
       <c r="I57" s="7">
-        <v>1165</v>
+        <v>931</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="M57" s="7">
         <v>3</v>
       </c>
       <c r="N57" s="7">
-        <v>1809</v>
+        <v>3185</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="C58" s="7">
         <v>1</v>
       </c>
       <c r="D58" s="7">
-        <v>672</v>
+        <v>713</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="H58" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I58" s="7">
-        <v>1167</v>
+        <v>2577</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>10</v>
+        <v>330</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="M58" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N58" s="7">
-        <v>1840</v>
+        <v>3290</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>10</v>
+        <v>299</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="C59" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" s="7">
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>325</v>
+        <v>10</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>326</v>
+        <v>224</v>
       </c>
       <c r="H59" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" s="7">
-        <v>2528</v>
+        <v>1492</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>328</v>
+        <v>10</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="M59" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N59" s="7">
-        <v>3471</v>
+        <v>1492</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>205</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="C60" s="7">
+        <v>2</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1862</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H60" s="7">
         <v>1</v>
       </c>
-      <c r="D60" s="7">
-        <v>892</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H60" s="7">
-        <v>2</v>
-      </c>
       <c r="I60" s="7">
-        <v>1907</v>
+        <v>778</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M60" s="7">
         <v>3</v>
       </c>
       <c r="N60" s="7">
-        <v>2799</v>
+        <v>2640</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
       </c>
       <c r="D61" s="7">
-        <v>937</v>
+        <v>983</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M61" s="7">
         <v>1</v>
       </c>
-      <c r="I61" s="7">
-        <v>536</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="M61" s="7">
-        <v>2</v>
-      </c>
       <c r="N61" s="7">
-        <v>1473</v>
+        <v>983</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>231</v>
+        <v>345</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C62" s="7">
         <v>0</v>
@@ -7757,37 +7757,37 @@
         <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="H62" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="7">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>343</v>
+        <v>10</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>344</v>
+        <v>60</v>
       </c>
       <c r="M62" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" s="7">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>345</v>
+        <v>10</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/ip32_a_es-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ip32_a_es-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD5C3B17-3CB4-4269-8E87-D7037FEA6816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F19FA10-21DB-4464-B37E-B43B1B50DF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{51B53061-D30F-4087-8980-00B937FE150B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F2B79E58-8AE2-491E-9A59-90FBC35853BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="367">
   <si>
     <t>Menores según el año que llegó a España en 2012 (Tasa respuesta: 2,62%)</t>
   </si>
@@ -105,88 +105,88 @@
     <t>15,66%</t>
   </si>
   <si>
-    <t>61,94%</t>
+    <t>66,48%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>40,46%</t>
+    <t>46,49%</t>
   </si>
   <si>
     <t>17,43%</t>
   </si>
   <si>
-    <t>65,82%</t>
+    <t>64,5%</t>
   </si>
   <si>
     <t>46,8%</t>
   </si>
   <si>
-    <t>86,6%</t>
+    <t>86,88%</t>
   </si>
   <si>
     <t>28,88%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
   </si>
   <si>
     <t>31,73%</t>
   </si>
   <si>
-    <t>77,73%</t>
+    <t>77,62%</t>
   </si>
   <si>
     <t>12,37%</t>
   </si>
   <si>
-    <t>35,76%</t>
+    <t>41,08%</t>
   </si>
   <si>
     <t>52,71%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
   </si>
   <si>
     <t>32,16%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
   </si>
   <si>
     <t>21,47%</t>
   </si>
   <si>
-    <t>84,57%</t>
+    <t>67,27%</t>
   </si>
   <si>
     <t>8,37%</t>
   </si>
   <si>
-    <t>43,27%</t>
+    <t>42,08%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>59,5%</t>
+    <t>59,86%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>37,19%</t>
+    <t>37,63%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -204,103 +204,103 @@
     <t>9,38%</t>
   </si>
   <si>
-    <t>39,72%</t>
+    <t>39,14%</t>
   </si>
   <si>
     <t>6,04%</t>
   </si>
   <si>
-    <t>30,89%</t>
+    <t>25,0%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>67,81%</t>
+    <t>69,11%</t>
   </si>
   <si>
     <t>5,9%</t>
   </si>
   <si>
-    <t>25,04%</t>
+    <t>29,13%</t>
   </si>
   <si>
     <t>9,11%</t>
   </si>
   <si>
-    <t>46,92%</t>
+    <t>38,48%</t>
   </si>
   <si>
     <t>35,67%</t>
   </si>
   <si>
-    <t>84,63%</t>
+    <t>71,39%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>61,44%</t>
+    <t>53,21%</t>
   </si>
   <si>
     <t>15,63%</t>
   </si>
   <si>
-    <t>67,34%</t>
+    <t>65,31%</t>
   </si>
   <si>
     <t>19,31%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
   </si>
   <si>
     <t>39,83%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
   </si>
   <si>
     <t>32,13%</t>
   </si>
   <si>
-    <t>67,97%</t>
+    <t>82,74%</t>
   </si>
   <si>
     <t>37,09%</t>
   </si>
   <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
   </si>
   <si>
     <t>20,33%</t>
   </si>
   <si>
-    <t>58,02%</t>
+    <t>51,09%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>38,53%</t>
+    <t>39,27%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -312,829 +312,832 @@
     <t>9,69%</t>
   </si>
   <si>
-    <t>39,18%</t>
+    <t>49,41%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>23,58%</t>
+    <t>19,27%</t>
   </si>
   <si>
     <t>21,83%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
   </si>
   <si>
     <t>13,17%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>26,45%</t>
+    <t>28,82%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>14,28%</t>
+    <t>17,62%</t>
   </si>
   <si>
     <t>21,24%</t>
   </si>
   <si>
-    <t>60,16%</t>
+    <t>55,01%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>35,11%</t>
+    <t>31,44%</t>
   </si>
   <si>
     <t>12,83%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>25,17%</t>
+    <t>24,54%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>18,49%</t>
+    <t>13,91%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>25,1%</t>
+    <t>21,74%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>14,56%</t>
+    <t>13,33%</t>
   </si>
   <si>
     <t>48,86%</t>
   </si>
   <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el año que llegó a España en 2016 (Tasa respuesta: 1,51%)</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
     <t>18,9%</t>
   </si>
   <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
+    <t>49,96%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el año que llegó a España en 2015 (Tasa respuesta: 1,51%)</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
+    <t>29,63%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>33,47%</t>
+    <t>32,97%</t>
   </si>
   <si>
     <t>16,41%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
+    <t>3,97%</t>
   </si>
   <si>
     <t>11,91%</t>
   </si>
   <si>
-    <t>3,23%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
   </si>
   <si>
     <t>9,5%</t>
   </si>
   <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
-    <t>39,76%</t>
+    <t>42,04%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>18,35%</t>
+    <t>21,86%</t>
   </si>
 </sst>
 </file>
@@ -1546,7 +1549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C07392-44BF-479F-A1A4-8DFD2C338D10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC416F9-142C-49F5-8968-E06E363A7A77}">
   <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4637,10 +4640,10 @@
         <v>138</v>
       </c>
       <c r="P62" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q62" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,37 +4717,37 @@
         <v>12</v>
       </c>
       <c r="G64" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L64" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H64" s="7">
-        <v>0</v>
-      </c>
-      <c r="I64" s="7">
-        <v>0</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L64" s="7" t="s">
+      <c r="M64" s="7">
+        <v>0</v>
+      </c>
+      <c r="N64" s="7">
+        <v>0</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q64" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="M64" s="7">
-        <v>0</v>
-      </c>
-      <c r="N64" s="7">
-        <v>0</v>
-      </c>
-      <c r="O64" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,37 +4768,37 @@
         <v>12</v>
       </c>
       <c r="G65" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L65" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H65" s="7">
-        <v>0</v>
-      </c>
-      <c r="I65" s="7">
-        <v>0</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L65" s="7" t="s">
+      <c r="M65" s="7">
+        <v>0</v>
+      </c>
+      <c r="N65" s="7">
+        <v>0</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q65" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="M65" s="7">
-        <v>0</v>
-      </c>
-      <c r="N65" s="7">
-        <v>0</v>
-      </c>
-      <c r="O65" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,37 +4819,37 @@
         <v>12</v>
       </c>
       <c r="G66" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="7">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H66" s="7">
-        <v>0</v>
-      </c>
-      <c r="I66" s="7">
-        <v>0</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L66" s="7" t="s">
+      <c r="M66" s="7">
+        <v>0</v>
+      </c>
+      <c r="N66" s="7">
+        <v>0</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q66" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="M66" s="7">
-        <v>0</v>
-      </c>
-      <c r="N66" s="7">
-        <v>0</v>
-      </c>
-      <c r="O66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,37 +4870,37 @@
         <v>12</v>
       </c>
       <c r="G67" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L67" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H67" s="7">
-        <v>0</v>
-      </c>
-      <c r="I67" s="7">
-        <v>0</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L67" s="7" t="s">
+      <c r="M67" s="7">
+        <v>0</v>
+      </c>
+      <c r="N67" s="7">
+        <v>0</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q67" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="M67" s="7">
-        <v>0</v>
-      </c>
-      <c r="N67" s="7">
-        <v>0</v>
-      </c>
-      <c r="O67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q67" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,14 +4915,14 @@
         <v>2051</v>
       </c>
       <c r="E68" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="H68" s="7">
         <v>0</v>
       </c>
@@ -4933,7 +4936,7 @@
         <v>12</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M68" s="7">
         <v>2</v>
@@ -4942,13 +4945,13 @@
         <v>2051</v>
       </c>
       <c r="O68" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q68" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P68" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q68" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,13 +4966,13 @@
         <v>2207</v>
       </c>
       <c r="E69" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H69" s="7">
         <v>6</v>
@@ -4978,13 +4981,13 @@
         <v>5885</v>
       </c>
       <c r="J69" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K69" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K69" s="7" t="s">
+      <c r="L69" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M69" s="7">
         <v>8</v>
@@ -4993,13 +4996,13 @@
         <v>8091</v>
       </c>
       <c r="O69" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P69" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P69" s="7" t="s">
+      <c r="Q69" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q69" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,7 +5023,7 @@
         <v>12</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H70" s="7">
         <v>4</v>
@@ -5029,13 +5032,13 @@
         <v>3209</v>
       </c>
       <c r="J70" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K70" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K70" s="7" t="s">
+      <c r="L70" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M70" s="7">
         <v>4</v>
@@ -5044,13 +5047,13 @@
         <v>3209</v>
       </c>
       <c r="O70" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P70" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P70" s="7" t="s">
+      <c r="Q70" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q70" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5068,13 @@
         <v>4720</v>
       </c>
       <c r="E71" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="G71" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H71" s="7">
         <v>2</v>
@@ -5080,13 +5083,13 @@
         <v>2003</v>
       </c>
       <c r="J71" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M71" s="7">
         <v>7</v>
@@ -5095,13 +5098,13 @@
         <v>6723</v>
       </c>
       <c r="O71" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P71" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P71" s="7" t="s">
+      <c r="Q71" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q71" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5119,13 @@
         <v>4187</v>
       </c>
       <c r="E72" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="G72" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H72" s="7">
         <v>3</v>
@@ -5131,10 +5134,10 @@
         <v>2924</v>
       </c>
       <c r="J72" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K72" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>174</v>
@@ -5233,13 +5236,13 @@
         <v>736</v>
       </c>
       <c r="J74" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L74" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L74" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M74" s="7">
         <v>3</v>
@@ -5248,13 +5251,13 @@
         <v>2798</v>
       </c>
       <c r="O74" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P74" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P74" s="7" t="s">
+      <c r="Q74" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q74" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5272,13 @@
         <v>4653</v>
       </c>
       <c r="E75" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G75" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H75" s="7">
         <v>1</v>
@@ -5284,13 +5287,13 @@
         <v>910</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K75" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M75" s="7">
         <v>6</v>
@@ -5299,13 +5302,13 @@
         <v>5563</v>
       </c>
       <c r="O75" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P75" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q75" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P75" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q75" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5323,13 @@
         <v>1924</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H76" s="7">
         <v>5</v>
@@ -5335,13 +5338,13 @@
         <v>4245</v>
       </c>
       <c r="J76" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L76" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K76" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L76" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M76" s="7">
         <v>7</v>
@@ -5353,10 +5356,10 @@
         <v>138</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,7 +5380,7 @@
         <v>12</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H77" s="7">
         <v>3</v>
@@ -5386,13 +5389,13 @@
         <v>2841</v>
       </c>
       <c r="J77" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L77" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K77" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L77" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M77" s="7">
         <v>3</v>
@@ -5401,13 +5404,13 @@
         <v>2841</v>
       </c>
       <c r="O77" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P77" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P77" s="7" t="s">
+      <c r="Q77" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q77" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,7 +5466,7 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -5483,7 +5486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546D268F-DC4A-4AB1-8C4A-5950F5A765AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9A1A23-71C5-45BD-88EB-92088BB664D9}">
   <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5500,7 +5503,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5622,7 +5625,7 @@
         <v>759</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
@@ -5637,7 +5640,7 @@
         <v>759</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
@@ -5673,7 +5676,7 @@
         <v>536</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
@@ -5688,7 +5691,7 @@
         <v>1473</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
@@ -5730,22 +5733,22 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,22 +5784,22 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,22 +5835,22 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,22 +5886,22 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,22 +5937,22 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,22 +5988,22 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,22 +6039,22 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6087,22 +6090,22 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,22 +6141,22 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,22 +6192,22 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,22 +6243,22 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,22 +6294,22 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,22 +6383,22 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6431,22 +6434,22 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6476,7 +6479,7 @@
         <v>892</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
@@ -6497,7 +6500,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -6506,13 +6509,13 @@
         <v>892</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,7 +6536,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6542,7 +6545,7 @@
         <v>715</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
@@ -6557,13 +6560,13 @@
         <v>715</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,7 +6581,7 @@
         <v>672</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
@@ -6599,7 +6602,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -6608,13 +6611,13 @@
         <v>672</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,7 +6638,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -6644,7 +6647,7 @@
         <v>1165</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
@@ -6659,13 +6662,13 @@
         <v>1165</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,22 +6689,22 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6737,22 +6740,22 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6788,22 +6791,22 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -6839,22 +6842,22 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6890,22 +6893,22 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6941,22 +6944,22 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -6992,22 +6995,22 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -7043,22 +7046,22 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7162,7 +7165,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -7213,7 +7216,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -7258,13 +7261,13 @@
         <v>915</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -7273,13 +7276,13 @@
         <v>915</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7309,13 +7312,13 @@
         <v>938</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -7324,13 +7327,13 @@
         <v>938</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7366,7 +7369,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7417,7 +7420,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -7426,13 +7429,13 @@
         <v>644</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7462,13 +7465,13 @@
         <v>931</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>245</v>
+        <v>14</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -7477,13 +7480,13 @@
         <v>931</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,7 +7522,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -7564,13 +7567,13 @@
         <v>931</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -7579,13 +7582,13 @@
         <v>931</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7621,7 +7624,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -7672,7 +7675,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -7723,7 +7726,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -7774,7 +7777,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -7825,7 +7828,7 @@
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -7914,7 +7917,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -7944,7 +7947,7 @@
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7965,7 +7968,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -7995,7 +7998,7 @@
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8016,7 +8019,7 @@
         <v>12</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -8025,13 +8028,13 @@
         <v>993</v>
       </c>
       <c r="J51" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -8040,13 +8043,13 @@
         <v>993</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8061,13 +8064,13 @@
         <v>943</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -8076,13 +8079,13 @@
         <v>875</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M52" s="7">
         <v>2</v>
@@ -8091,13 +8094,13 @@
         <v>1818</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8118,7 +8121,7 @@
         <v>12</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -8127,13 +8130,13 @@
         <v>1167</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M53" s="7">
         <v>1</v>
@@ -8142,13 +8145,13 @@
         <v>1167</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8169,7 +8172,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -8199,7 +8202,7 @@
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8214,13 +8217,13 @@
         <v>2024</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -8229,13 +8232,13 @@
         <v>931</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M55" s="7">
         <v>3</v>
@@ -8244,13 +8247,13 @@
         <v>2956</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8271,7 +8274,7 @@
         <v>12</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -8301,7 +8304,7 @@
         <v>12</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8316,13 +8319,13 @@
         <v>2253</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -8346,13 +8349,13 @@
         <v>2253</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q57" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -8367,13 +8370,13 @@
         <v>713</v>
       </c>
       <c r="E58" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H58" s="7">
         <v>3</v>
@@ -8382,13 +8385,13 @@
         <v>2577</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M58" s="7">
         <v>4</v>
@@ -8397,13 +8400,13 @@
         <v>3290</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q58" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -8424,7 +8427,7 @@
         <v>12</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H59" s="7">
         <v>2</v>
@@ -8433,13 +8436,13 @@
         <v>1492</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M59" s="7">
         <v>2</v>
@@ -8448,13 +8451,13 @@
         <v>1492</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -8469,13 +8472,13 @@
         <v>1862</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
@@ -8484,13 +8487,13 @@
         <v>778</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M60" s="7">
         <v>3</v>
@@ -8499,13 +8502,13 @@
         <v>2640</v>
       </c>
       <c r="O60" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q60" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -8520,13 +8523,13 @@
         <v>983</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -8550,13 +8553,13 @@
         <v>983</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -8577,7 +8580,7 @@
         <v>12</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -8607,7 +8610,7 @@
         <v>12</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -8681,7 +8684,7 @@
         <v>12</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -8690,13 +8693,13 @@
         <v>759</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M64" s="7">
         <v>1</v>
@@ -8705,13 +8708,13 @@
         <v>759</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -8726,13 +8729,13 @@
         <v>937</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -8747,7 +8750,7 @@
         <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M65" s="7">
         <v>2</v>
@@ -8756,13 +8759,13 @@
         <v>1473</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -8777,13 +8780,13 @@
         <v>892</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H66" s="7">
         <v>2</v>
@@ -8792,13 +8795,13 @@
         <v>1907</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M66" s="7">
         <v>3</v>
@@ -8807,13 +8810,13 @@
         <v>2799</v>
       </c>
       <c r="O66" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q66" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -8828,13 +8831,13 @@
         <v>943</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H67" s="7">
         <v>3</v>
@@ -8843,13 +8846,13 @@
         <v>2528</v>
       </c>
       <c r="J67" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L67" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M67" s="7">
         <v>4</v>
@@ -8858,13 +8861,13 @@
         <v>3471</v>
       </c>
       <c r="O67" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q67" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P67" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q67" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -8879,13 +8882,13 @@
         <v>672</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
@@ -8894,13 +8897,13 @@
         <v>1167</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M68" s="7">
         <v>2</v>
@@ -8909,13 +8912,13 @@
         <v>1840</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>246</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -8930,13 +8933,13 @@
         <v>644</v>
       </c>
       <c r="E69" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H69" s="7">
         <v>2</v>
@@ -8945,7 +8948,7 @@
         <v>1165</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>179</v>
+        <v>328</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>11</v>
@@ -8966,7 +8969,7 @@
         <v>331</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>332</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -8981,13 +8984,13 @@
         <v>2024</v>
       </c>
       <c r="E70" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -8996,13 +8999,13 @@
         <v>1863</v>
       </c>
       <c r="J70" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L70" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M70" s="7">
         <v>4</v>
@@ -9011,13 +9014,13 @@
         <v>3887</v>
       </c>
       <c r="O70" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P70" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="P70" s="7" t="s">
+      <c r="Q70" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="Q70" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -9038,7 +9041,7 @@
         <v>12</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -9053,7 +9056,7 @@
         <v>12</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M71" s="7">
         <v>0</v>
@@ -9068,7 +9071,7 @@
         <v>12</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -9083,7 +9086,7 @@
         <v>2253</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>11</v>
@@ -9098,13 +9101,13 @@
         <v>931</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M72" s="7">
         <v>3</v>
@@ -9113,13 +9116,13 @@
         <v>3185</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -9134,13 +9137,13 @@
         <v>713</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H73" s="7">
         <v>3</v>
@@ -9149,13 +9152,13 @@
         <v>2577</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>350</v>
+        <v>269</v>
       </c>
       <c r="M73" s="7">
         <v>4</v>
@@ -9170,7 +9173,7 @@
         <v>352</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>155</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -9191,7 +9194,7 @@
         <v>12</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H74" s="7">
         <v>2</v>
@@ -9200,13 +9203,13 @@
         <v>1492</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M74" s="7">
         <v>2</v>
@@ -9215,13 +9218,13 @@
         <v>1492</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -9236,13 +9239,13 @@
         <v>1862</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H75" s="7">
         <v>1</v>
@@ -9257,7 +9260,7 @@
         <v>11</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M75" s="7">
         <v>3</v>
@@ -9266,13 +9269,13 @@
         <v>2640</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -9287,13 +9290,13 @@
         <v>983</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
@@ -9308,7 +9311,7 @@
         <v>12</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M76" s="7">
         <v>1</v>
@@ -9317,13 +9320,13 @@
         <v>983</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P76" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -9344,7 +9347,7 @@
         <v>12</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
@@ -9359,7 +9362,7 @@
         <v>12</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M77" s="7">
         <v>0</v>
@@ -9374,7 +9377,7 @@
         <v>12</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -9430,7 +9433,7 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
